--- a/ExpGrowthExcel_filled.xlsx
+++ b/ExpGrowthExcel_filled.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
